--- a/content/home/Macropru_index_online.xlsx
+++ b/content/home/Macropru_index_online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEPERS_E\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA0C26A-2C54-41A6-BA89-D32B6C3B5733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F20160-5022-4758-8397-159E421E194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B8A74D38-597E-476A-AB47-A60D4CDB23B2}"/>
   </bookViews>
@@ -283,9 +283,6 @@
     <t>Prudential regulator/supervisor if different than central bank</t>
   </si>
   <si>
-    <t>pol_indep</t>
-  </si>
-  <si>
     <t>This data was introduced and described in Lepers (2024), "Macroprudential Governance and Capacity to remove the punch bowl", IMF Economic Review, and built on previous efforts by Romelli (2022), Edge and Liang (2019), Barth et al (2013), Lepers and Thiemann (2023)</t>
   </si>
   <si>
@@ -295,7 +292,10 @@
     <t>This file provides data on institutional arrangements for macroprudential policy as well as independence indices for institutions in charge of macroprudential policy, capital-based and borrower-based measures for 57 countries.</t>
   </si>
   <si>
-    <t>Overall macroprudential independence index</t>
+    <t>Overall macroprudential policy independence index</t>
+  </si>
+  <si>
+    <t>MPI</t>
   </si>
 </sst>
 </file>
@@ -462,19 +462,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{0C9F96D8-7191-4238-8612-C9F787536EBC}"/>
@@ -797,7 +797,7 @@
   <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,24 +810,24 @@
   <sheetData>
     <row r="1" spans="2:4" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="20"/>
       <c r="D3" s="3"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -883,7 +883,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -891,11 +891,11 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>80</v>
+      <c r="B31" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
@@ -931,11 +931,8 @@
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{5F7DA7AF-8962-4C74-B0EC-690F82AE51BB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -947,1168 +944,1168 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" style="14" customWidth="1"/>
-    <col min="4" max="5" width="11.6328125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" style="20"/>
+    <col min="1" max="1" width="32.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.6328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>80</v>
+      <c r="F1" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>0.61850000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0.5</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0.64999997615814198</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>0.5911111</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13">
         <v>0.5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>5.9999998658895499E-2</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
         <v>0.75</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>0.65449999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.82999998331069902</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>0.38150000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.21999999880790699</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>1.7749999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>0.4166667</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13">
         <v>0.75</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>0.65449999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>0.64999997615814198</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>0.72550000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>7.9999998211860698E-2</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>0.90649999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>0.53555549999999996</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>0.57999998331069902</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>0.50777779999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="B20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.582499980926514</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13">
         <v>0.5</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>0.5</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>0.707499980926514</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>0.72568750000000004</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13">
         <v>0.5</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>0.3125</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>0.40868749999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13">
         <v>0.75</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>0.644999980926514</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>0.644999980926514</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>0.707499980926514</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>0.1666667</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>0.75</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>0.375</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="B32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0.707499980926514</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>0.77475000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="B34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="13">
         <v>0.5</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="18">
         <v>0.36849999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>0.3333333</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>0.25</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>0.47</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="14">
+      <c r="B37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="13">
         <v>0.5</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>0.417499989271164</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>0.25</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>0.6875</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>0.75</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>0.707499980926514</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="18">
         <v>0.375</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="13">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>0.644999980926514</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>0.60050000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0.769999980926514</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="18">
         <v>8.3333299999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="B42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="13">
         <v>0.75</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="14">
+      <c r="B43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>0.707499980926514</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <v>0.47549999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="14">
+      <c r="B44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>0.644999980926514</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="18">
         <v>0.4266875</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="B45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="13">
         <v>0.16666666666666699</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>0.16666670143604301</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="14">
+      <c r="B46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="13">
         <v>0.75</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>0.769999980926514</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="B47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="13">
         <v>0</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>0.207499995827675</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>0.11849999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="B48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="13">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>0.75</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>0.94</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="14">
+      <c r="B50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="13">
         <v>0.25</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>0.644999980926514</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="14">
+      <c r="B51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="13">
         <v>0.75</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>0.47</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>0.5</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="18">
         <v>0.1666667</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>0.41666666666666702</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>0.332500010728836</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="14">
+      <c r="B54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="13">
         <v>0.25</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <v>0.519999980926514</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <v>0.52449999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>0.75</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>0.644999980926514</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>0.75</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="14">
+      <c r="B56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="13">
         <v>0.5</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>0.582499980926514</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <v>0.51149999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>0.75</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>0.4375</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="14">
+      <c r="B58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="13">
         <v>0.5</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>0</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="18">
         <v>0</v>
       </c>
     </row>
